--- a/biology/Botanique/Horace_Vernet_(rose)/Horace_Vernet_(rose).xlsx
+++ b/biology/Botanique/Horace_Vernet_(rose)/Horace_Vernet_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'Horace Vernet' est un cultivar de rosier obtenu par Guillot fils (1827-1893) en 1866. Il est dédié au peintre Horace Vernet (1789-1863).
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier est toujours prisé par les amateurs de roses anciennes. Ses fleurs éclosent en corolles turbinées d'un beau pourpre nuancé de cramoisi[1] qui s'ouvrent ensuite en grandes coupes (26-40 pétales[2]) très doubles prenant un ton velouté. Les fleurs sont agréablement parfumées[3].
-Le buisson de ce rosier au feuillage sombre présente un port érigé et peut s'élever à 120 cm, voire 150 cm[4], pour une envergure de 90 cm.
-Il est très résistant au froid, puisque sa zone de rusticité est de 4b à 9b[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier est toujours prisé par les amateurs de roses anciennes. Ses fleurs éclosent en corolles turbinées d'un beau pourpre nuancé de cramoisi qui s'ouvrent ensuite en grandes coupes (26-40 pétales) très doubles prenant un ton velouté. Les fleurs sont agréablement parfumées.
+Le buisson de ce rosier au feuillage sombre présente un port érigé et peut s'élever à 120 cm, voire 150 cm, pour une envergure de 90 cm.
+Il est très résistant au froid, puisque sa zone de rusticité est de 4b à 9b.
 Le rosier 'Horace Vernet' est issu d'un croisement de 'Général Jacqueminot' (Roussel 1853) et d'un semis non nommé.
 </t>
         </is>
